--- a/data/income_statement/2digits/total/60_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/60_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>60-Programming and broadcasting activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>60-Programming and broadcasting activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>2102640.05163</v>
@@ -956,37 +862,42 @@
         <v>2451463.6139</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>2973914.99682</v>
+        <v>2973927.58923</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>3373381.19216</v>
+        <v>3373696.48622</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>4251838.62456</v>
+        <v>4252909.57011</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>4498882.92363</v>
+        <v>4502145.89716</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>4998253.80577</v>
+        <v>5001216.18744</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>4357503.458529999</v>
+        <v>5476134.14283</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>5932476.17906</v>
+        <v>5932476.179059999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>5162476.11888</v>
+        <v>5163607.50165</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>5483933.616520001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>5491390.009799999</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>6623693.473</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>1946079.30303</v>
@@ -995,37 +906,42 @@
         <v>2312702.59275</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>2754940.12426</v>
+        <v>2754952.71667</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>3089786.67611</v>
+        <v>3090022.26214</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>3902877.11797</v>
+        <v>3903940.98214</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>4101494.85175</v>
+        <v>4104704.931189999</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>4472290.023539999</v>
+        <v>4475232.70937</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>4075667.14556</v>
+        <v>4860931.269329999</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>5267580.64195</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>4668420.380139999</v>
+        <v>4669551.63775</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>4935898.19873</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>4943200.40779</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>5980820.38</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>19646.34805</v>
@@ -1037,7 +953,7 @@
         <v>48535.4497</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>85848.62939999999</v>
+        <v>85848.62940000001</v>
       </c>
       <c r="G7" s="48" t="n">
         <v>132280.31894</v>
@@ -1049,22 +965,27 @@
         <v>170477.34673</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>229712.65876</v>
+        <v>267435.90358</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>327408.64291</v>
+        <v>327408.6429100001</v>
       </c>
       <c r="L7" s="48" t="n">
         <v>419853.04359</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>496220.0165699999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>496252.5043199999</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>571978.789</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>136914.40055</v>
@@ -1076,34 +997,39 @@
         <v>170439.42286</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>197745.88665</v>
+        <v>197825.59468</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>216681.18765</v>
+        <v>216688.26903</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>287530.8652</v>
+        <v>287583.75929</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>355486.4355</v>
+        <v>355506.13134</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>52123.65420999999</v>
+        <v>347766.96992</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>337486.8942</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>74202.69515</v>
+        <v>74202.82030999998</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>51815.40122000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>51937.09768999999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>70894.304</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>20089.33576</v>
@@ -1115,7 +1041,7 @@
         <v>29032.28107</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>36530.21494</v>
+        <v>36530.77494</v>
       </c>
       <c r="G9" s="47" t="n">
         <v>101730.03757</v>
@@ -1127,7 +1053,7 @@
         <v>198393.30493</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>166657.01882</v>
+        <v>175846.64753</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>199954.85851</v>
@@ -1136,13 +1062,18 @@
         <v>215936.36761</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>242028.76511</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>242072.43566</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>309533.353</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>19862.48752</v>
@@ -1154,7 +1085,7 @@
         <v>22498.46986</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>18614.4157</v>
+        <v>18614.9757</v>
       </c>
       <c r="G10" s="48" t="n">
         <v>14009.85224</v>
@@ -1166,22 +1097,27 @@
         <v>101143.54068</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>45793.85571</v>
+        <v>54983.48441999999</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>65161.78937000001</v>
+        <v>65161.78937</v>
       </c>
       <c r="L10" s="48" t="n">
         <v>72050.09582999999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>76054.45144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>76098.12199</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>112925.84</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>152.76552</v>
@@ -1190,7 +1126,7 @@
         <v>2257.7544</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>597.8547900000001</v>
+        <v>597.8547899999999</v>
       </c>
       <c r="F11" s="48" t="n">
         <v>2358.06772</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>50846.41759</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>57916.962</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>74.08271999999999</v>
@@ -1229,7 +1170,7 @@
         <v>4799.28711</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>5935.956419999999</v>
+        <v>5935.95642</v>
       </c>
       <c r="F12" s="48" t="n">
         <v>15557.73152</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>115127.89608</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>138690.551</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>2082550.71587</v>
@@ -1268,37 +1214,42 @@
         <v>2425012.40608</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>2944882.71575</v>
+        <v>2944895.30816</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>3336850.97722</v>
+        <v>3337165.71128</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>4150108.58699</v>
+        <v>4151179.53254</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>4372879.263</v>
+        <v>4376142.236529999</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>4799860.50084</v>
+        <v>4802822.88251</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>4190846.43971</v>
+        <v>5300287.495300001</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>5732521.32055</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>4946539.75127</v>
+        <v>4947671.13404</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>5241904.85141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>5249317.574140001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>6314160.12</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>1772289.28417</v>
@@ -1307,37 +1258,42 @@
         <v>1821039.60144</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>2316127.72717</v>
+        <v>2316127.727169999</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>2737682.98477</v>
+        <v>2737715.82232</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>3431057.35848</v>
+        <v>3432200.2744</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>3862923.33297</v>
+        <v>3865715.83849</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>4327913.023460001</v>
+        <v>4335374.19876</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>3379443.07197</v>
+        <v>4334860.38733</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>4785859.425679999</v>
+        <v>4785859.42568</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>4354350.68775</v>
+        <v>4354416.25147</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>4489802.562280001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>4495700.82453</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>4981760.153</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>3220.69413</v>
@@ -1372,11 +1328,16 @@
       <c r="M15" s="48" t="n">
         <v>29315.61876</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>9061.423000000001</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>21732.95764</v>
@@ -1388,19 +1349,19 @@
         <v>37074.85025</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>43547.02649999999</v>
+        <v>43547.0265</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>52033.50693999999</v>
+        <v>52166.34759</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>71432.12707999999</v>
+        <v>71432.12708000002</v>
       </c>
       <c r="I16" s="48" t="n">
         <v>18725.81701</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>10206.19073</v>
+        <v>11216.23514</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>111394.10486</v>
@@ -1411,11 +1372,16 @@
       <c r="M16" s="48" t="n">
         <v>140584.49075</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="48" t="n">
+        <v>143020.083</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>1694596.53537</v>
@@ -1427,34 +1393,39 @@
         <v>2273053.28491</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>2668004.38985</v>
+        <v>2668037.2274</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>3347488.50802</v>
+        <v>3348498.58329</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>3683879.53949</v>
+        <v>3686672.04501</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>4268982.67793</v>
+        <v>4276443.85323</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>3359526.405890001</v>
+        <v>4313933.67684</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>4669815.45848</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>4197042.47906</v>
+        <v>4197108.04278</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>4310026.91451</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>4315925.17676</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>4811079.799</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>52739.09703</v>
@@ -1472,7 +1443,7 @@
         <v>14466.73596</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>7057.311499999999</v>
+        <v>7057.3115</v>
       </c>
       <c r="I18" s="48" t="n">
         <v>10156.03601</v>
@@ -1487,91 +1458,106 @@
         <v>10283.38387</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>9875.538260000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>9875.538259999999</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>18598.848</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>310261.4317</v>
+        <v>310261.4317000001</v>
       </c>
       <c r="D19" s="47" t="n">
         <v>603972.80464</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>628754.98858</v>
+        <v>628767.58099</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>599167.9924499999</v>
+        <v>599449.8889599999</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>719051.2285100002</v>
+        <v>718979.2581399999</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>509955.93003</v>
+        <v>510426.3980399999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>471947.4773800001</v>
+        <v>467448.68375</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>811403.3677399999</v>
+        <v>965427.1079699999</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>946661.8948699998</v>
+        <v>946661.89487</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>592189.06352</v>
+        <v>593254.88257</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>752102.28913</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>753616.7496100001</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1332399.967</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>547861.8484700001</v>
+        <v>547861.8484699999</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>643305.10959</v>
+        <v>643305.1095899999</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>698795.2477999999</v>
+        <v>698807.0949699999</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>831353.0910599999</v>
+        <v>831557.0515900002</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>931696.64026</v>
+        <v>931891.20858</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>931550.0116400002</v>
+        <v>933090.2786799999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>947588.7027200001</v>
+        <v>948677.6243999999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>968805.2946</v>
+        <v>1046436.81926</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1128472.61004</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1139790.06777</v>
+        <v>1140841.73223</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1185164.58579</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1189511.48988</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1302543.907</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>66.90983</v>
@@ -1589,7 +1575,7 @@
         <v>384.9069699999999</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>1092.63275</v>
+        <v>1101.82155</v>
       </c>
       <c r="I21" s="48" t="n">
         <v>314.0297</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>0.33827</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>218943.26529</v>
@@ -1628,67 +1619,77 @@
         <v>377500.48761</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>383780.51173</v>
+        <v>385001.16158</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>388950.98159</v>
+        <v>389747.31964</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>406638.49634</v>
+        <v>441412.93036</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>478849.92578</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>450118.5717500001</v>
+        <v>450118.57175</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>452798.31507</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>453066.70533</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>582993.472</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>328851.6733499999</v>
+        <v>328851.67335</v>
       </c>
       <c r="D23" s="48" t="n">
         <v>349272.1916500001</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>429749.5924500001</v>
+        <v>429761.43962</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>503296.1398300001</v>
+        <v>503500.1003599999</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>553811.2456800001</v>
+        <v>554005.8139999999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>546676.86716</v>
+        <v>546987.2955499999</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>558323.6914300001</v>
+        <v>558616.27506</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>561652.8354100001</v>
+        <v>604509.9260500001</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>649572.2306900001</v>
+        <v>649572.2306899999</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>689571.1275800001</v>
+        <v>690622.79204</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>732365.9324500001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>736444.4462799999</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>719550.4350000001</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>-237600.41677</v>
@@ -1697,37 +1698,42 @@
         <v>-39332.30495000001</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-70040.25921999999</v>
+        <v>-70039.51398000002</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-232185.09861</v>
+        <v>-232107.16263</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-212645.41175</v>
+        <v>-212911.95044</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-421594.08161</v>
+        <v>-422663.88064</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-475641.22534</v>
+        <v>-481228.94065</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-157401.92686</v>
+        <v>-81009.71129000002</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>-181810.71517</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-547601.00425</v>
+        <v>-547586.8496599999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-433062.29666</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-435894.74027</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>29856.06</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>244389.32444</v>
@@ -1739,34 +1745,39 @@
         <v>162989.83359</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>123226.04094</v>
+        <v>123226.1471</v>
       </c>
       <c r="G25" s="47" t="n">
         <v>153094.81941</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>158065.25757</v>
+        <v>158247.3421</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>357166.39059</v>
+        <v>357538.34383</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>506431.74808</v>
+        <v>524396.7505900001</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>507792.85304</v>
+        <v>507792.8530400001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>903345.40839</v>
+        <v>903345.4083900001</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1248436.47334</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1248561.36862</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>830467.38</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>415.68222</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>296.49668</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>1250</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>13801.03148</v>
@@ -1862,28 +1883,33 @@
         <v>16425.22047</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>40625.61374</v>
+        <v>40625.61374000001</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>47480.40482</v>
+        <v>47480.40482000001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>25072.31338</v>
+        <v>25347.807</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>38931.73622999999</v>
+        <v>38931.73623</v>
       </c>
       <c r="L28" s="48" t="n">
         <v>105100.09956</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>146622.58783</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>146748.37528</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>133185.968</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>414.01147</v>
@@ -1916,13 +1942,18 @@
         <v>9785.679769999999</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>5946.78395</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>5946.783949999999</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>7179.536</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>2505.72009</v>
@@ -1946,7 +1977,7 @@
         <v>7863.30773</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>1651.93772</v>
+        <v>1727.83962</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>4118.53811</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>32685.93446</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>21146.641</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>1107.94241</v>
@@ -1973,19 +2009,19 @@
         <v>113.8296</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>664.32067</v>
+        <v>664.3206700000001</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>314.85082</v>
+        <v>314.8508199999999</v>
       </c>
       <c r="H31" s="48" t="n">
         <v>606.1055499999999</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>496.22343</v>
+        <v>868.1766600000001</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>766.4141000000001</v>
+        <v>766.4140999999998</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>1010.78315</v>
@@ -1996,53 +2032,63 @@
       <c r="M31" s="48" t="n">
         <v>3400.33195</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>181745.136</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>115337.8908</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>56925.78024</v>
+        <v>56925.78023999999</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>79214.62319</v>
+        <v>79214.62319000001</v>
       </c>
       <c r="F32" s="48" t="n">
         <v>55746.40239</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>98313.93909000001</v>
+        <v>98313.93909</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>60694.28792</v>
+        <v>60876.37245</v>
       </c>
       <c r="I32" s="48" t="n">
         <v>259729.49321</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>367698.1721000001</v>
+        <v>380455.69816</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>397236.4886400001</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>662997.1821399999</v>
+        <v>662997.1821399998</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>963576.1049599999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>963575.6177599999</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>363424.232</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>55191.89518</v>
+        <v>55191.89517999999</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>13657.19331</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>7.51358</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>10.28222</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>259.928</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>55615.15079</v>
@@ -2129,7 +2185,7 @@
         <v>46583.99988</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>34397.65271</v>
+        <v>34397.75887</v>
       </c>
       <c r="G35" s="48" t="n">
         <v>30629.42656</v>
@@ -2138,10 +2194,10 @@
         <v>31928.93514</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>40878.59481</v>
+        <v>40878.59482</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>110756.63451</v>
+        <v>115612.71544</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>66189.35463</v>
@@ -2150,13 +2206,18 @@
         <v>104601.23647</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>94640.43771000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>94640.03274000001</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>121775.939</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>184993.11177</v>
@@ -2171,31 +2232,36 @@
         <v>126291.37648</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>296095.9940300001</v>
+        <v>296095.9940299999</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>207022.65378</v>
+        <v>207205.23499</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>547787.79597</v>
+        <v>547802.49991</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>605553.3060099999</v>
+        <v>733273.9706600001</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>490734.8472</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>931938.5788500002</v>
+        <v>931938.57885</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1108206.33142</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1108206.10643</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>646016.089</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>17875.55704</v>
@@ -2207,19 +2273,19 @@
         <v>36961.75578</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>46422.55457</v>
+        <v>46422.55456999999</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>66171.42967999999</v>
+        <v>66171.42968</v>
       </c>
       <c r="H37" s="48" t="n">
         <v>73442.18067999999</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>98775.39629</v>
+        <v>98775.39628999999</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>5787.09573</v>
+        <v>120967.7824</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>105060.64937</v>
@@ -2228,13 +2294,18 @@
         <v>12264.63454</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>9176.062599999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>9176.2898</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>12327.833</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>15146.97537</v>
@@ -2258,7 +2329,7 @@
         <v>17817.02277</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>12729.46134</v>
+        <v>13994.44054</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>13145.37226</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>42789.19551000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>41458.61</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>1.70933</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>12.83447</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>13.53</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>141413.97974</v>
@@ -2321,22 +2402,22 @@
         <v>59093.41761</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>76266.78778999999</v>
+        <v>76266.78779</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>33442.30854000001</v>
+        <v>33442.30854</v>
       </c>
       <c r="G40" s="48" t="n">
         <v>212053.57756</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>109571.61435</v>
+        <v>109754.19556</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>427696.98853</v>
+        <v>427711.68842</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>493171.3821800001</v>
+        <v>504502.26021</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>370391.1664099999</v>
@@ -2345,13 +2426,18 @@
         <v>862174.9272899999</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>1053258.40214</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>1053257.91494</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>577431.037</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>10554.89029</v>
@@ -2447,13 +2543,13 @@
         <v>3741.58844</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>4455.186779999999</v>
+        <v>4455.18678</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>3459.9745</v>
+        <v>3459.97855</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>93859.79132999999</v>
+        <v>93803.91208000001</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>2137.51307</v>
@@ -2462,13 +2558,18 @@
         <v>8250.462079999999</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>2969.8367</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>2969.87171</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>14785.079</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>83789.97571000001</v>
@@ -2486,28 +2587,33 @@
         <v>198009.17698</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>260159.70006</v>
+        <v>260182.78221</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>358099.48995</v>
+        <v>358104.6055900001</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>509113.86699</v>
+        <v>509970.6898</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>485038.9853000001</v>
+        <v>485038.9853</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>897581.50603</v>
+        <v>897581.5060299999</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>702095.4913399999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>702119.1112</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>264307.241</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>77774.69140000001</v>
@@ -2525,28 +2631,33 @@
         <v>160433.1779</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>232357.00441</v>
+        <v>232380.08656</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>343978.2877</v>
+        <v>343983.40334</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>508634.6224999999</v>
+        <v>509491.4453099999</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>477492.38601</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>887377.38365</v>
+        <v>887377.3836500001</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>700939.4008300001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>700963.02069</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>263578.686</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>6015.284310000001</v>
@@ -2558,10 +2669,10 @@
         <v>28942.16177</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>18360.73406999999</v>
+        <v>18360.73407</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>37575.99908000001</v>
+        <v>37575.99908</v>
       </c>
       <c r="H46" s="48" t="n">
         <v>27802.69565</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>1156.09051</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>728.5549999999999</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>-261994.17981</v>
@@ -2594,76 +2710,86 @@
         <v>-75100.83921999999</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-195584.60282</v>
+        <v>-195583.85758</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-366153.66422</v>
+        <v>-366075.62208</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-553655.76335</v>
+        <v>-553922.3020400001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-730711.17788</v>
+        <v>-731804.5557399999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-1024362.12067</v>
+        <v>-1029597.70232</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-765637.35178</v>
+        <v>-799857.62116</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>-649791.69463</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-1473775.68074</v>
+        <v>-1473761.52615</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-994927.6460800002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-997658.5892800001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-49999.89</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>59299.39979</v>
+        <v>59299.39978999999</v>
       </c>
       <c r="D48" s="47" t="n">
         <v>13558.72382</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>28544.09569</v>
+        <v>28544.09568999999</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>18857.50307</v>
+        <v>18857.50319</v>
       </c>
       <c r="G48" s="47" t="n">
         <v>40868.71703</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>37660.87583</v>
+        <v>37664.35577</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>36093.23534000001</v>
+        <v>36093.38661</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>28678.04155999999</v>
+        <v>28913.74363</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>91005.63524</v>
+        <v>91005.63523999999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>36588.12736999999</v>
+        <v>36588.12737</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>51476.84456000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>51874.07674</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>43550.87</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>494.19501</v>
@@ -2684,7 +2810,7 @@
         <v>175.07393</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>473.35478</v>
+        <v>473.3547799999999</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>236.25492</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>2758.37475</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>2161.931</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>58805.20478</v>
@@ -2714,34 +2845,39 @@
         <v>27832.00014</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>16802.23152</v>
+        <v>16802.23164</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>40464.26086000001</v>
+        <v>40464.26086</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>37485.80190000001</v>
+        <v>37489.28184</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>35619.88056000001</v>
+        <v>35620.03183</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>28441.78664</v>
+        <v>28677.48871</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>88100.35124999998</v>
+        <v>88100.35125000002</v>
       </c>
       <c r="L50" s="48" t="n">
         <v>35938.95975</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>48718.46981</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>49115.70198999999</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>41388.939</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>70076.07515999999</v>
@@ -2753,19 +2889,19 @@
         <v>159398.69926</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>66966.31586</v>
+        <v>66966.32097</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>58038.257</v>
+        <v>58089.62413</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>221740.69867</v>
+        <v>221820.54117</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>60445.63829000001</v>
+        <v>60735.38348</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>94480.70861999999</v>
+        <v>95884.85057</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>41396.94064</v>
@@ -2774,13 +2910,18 @@
         <v>97970.75064</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>62340.27177</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>63202.8807</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>80513.45299999999</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>60.83049</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>40.917</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>6663.753789999999</v>
@@ -2843,7 +2989,7 @@
         <v>17450.46519</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>1552.41045</v>
+        <v>1842.32433</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>1094.36821</v>
@@ -2854,14 +3000,19 @@
       <c r="M53" s="48" t="n">
         <v>5202.184289999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>30531.374</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>63351.49088000001</v>
+        <v>63351.49088</v>
       </c>
       <c r="D54" s="48" t="n">
         <v>81063.70106000001</v>
@@ -2870,34 +3021,39 @@
         <v>155556.03076</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>61787.31687000001</v>
+        <v>61787.32197999999</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>54519.44087000001</v>
+        <v>54570.808</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>216988.47959</v>
+        <v>217068.32209</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>42994.34894</v>
+        <v>43284.09413</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>92928.29816999999</v>
+        <v>94042.52623999999</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>40301.77243</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>86601.09342</v>
+        <v>86601.09342000002</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>57138.08747999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>58000.69641</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>49941.162</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>-272770.85518</v>
@@ -2906,49 +3062,54 @@
         <v>-144835.90389</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-326439.20639</v>
+        <v>-326438.46115</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-414262.47701</v>
+        <v>-414184.4398599999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-570825.3033200001</v>
+        <v>-571143.2091399999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-914791.0007199999</v>
+        <v>-915960.7411399999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-1048714.52362</v>
+        <v>-1054239.69919</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-831440.01884</v>
+        <v>-866828.7280999999</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-600183.0000300001</v>
+        <v>-600183.00003</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-1535158.30401</v>
+        <v>-1535144.14942</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-1005791.07329</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-1008987.39324</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-86962.473</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>13092.22473</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>48362.35857000001</v>
+        <v>48362.35857</v>
       </c>
       <c r="E56" s="47" t="n">
         <v>49693.66188</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>42942.49694</v>
+        <v>42956.17876</v>
       </c>
       <c r="G56" s="47" t="n">
         <v>27811.26285</v>
@@ -2957,25 +3118,30 @@
         <v>15847.82695</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>13048.54859</v>
+        <v>13074.41976</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>10222.29302</v>
+        <v>15311.09472</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>12004.74772</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>18749.1351</v>
+        <v>18749.75416</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>16012.96618</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>16047.46231</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>40218.501</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>-285863.07991</v>
@@ -2984,34 +3150,37 @@
         <v>-193198.26246</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-376132.86827</v>
+        <v>-376132.12303</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-457204.9739500001</v>
+        <v>-457140.61862</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-598636.56617</v>
+        <v>-598954.47199</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-930638.8276699998</v>
+        <v>-931808.5680900001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-1061763.07221</v>
+        <v>-1067314.11895</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-841662.31186</v>
+        <v>-882139.8228199999</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-612187.7477499999</v>
+        <v>-612187.74775</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-1553907.43911</v>
+        <v>-1553893.90358</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-1021804.03947</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-1025034.85555</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-127180.974</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>1407</v>
@@ -3038,34 +3210,37 @@
         <v>1454</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1538</v>
+        <v>1543</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1559</v>
+        <v>1565</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1560</v>
+        <v>1576</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1556</v>
+        <v>1576</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1523</v>
+        <v>1532</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>1549</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1543</v>
+        <v>1555</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1536</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>